--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H2">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N2">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O2">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P2">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q2">
-        <v>26.25494802883333</v>
+        <v>20.59929552645933</v>
       </c>
       <c r="R2">
-        <v>236.2945322595</v>
+        <v>185.393659738134</v>
       </c>
       <c r="S2">
-        <v>0.06075744357076009</v>
+        <v>0.03971749381083348</v>
       </c>
       <c r="T2">
-        <v>0.06075744357076011</v>
+        <v>0.03971749381083348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H3">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.039673</v>
       </c>
       <c r="O3">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P3">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q3">
-        <v>22.392435128921</v>
+        <v>12.76151304990967</v>
       </c>
       <c r="R3">
-        <v>201.531916160289</v>
+        <v>114.853617449187</v>
       </c>
       <c r="S3">
-        <v>0.05181907472310389</v>
+        <v>0.02460546842126779</v>
       </c>
       <c r="T3">
-        <v>0.0518190747231039</v>
+        <v>0.02460546842126778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H4">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N4">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O4">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P4">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q4">
-        <v>5.619030951248</v>
+        <v>11.02288482181911</v>
       </c>
       <c r="R4">
-        <v>50.57127856123201</v>
+        <v>99.205963396372</v>
       </c>
       <c r="S4">
-        <v>0.01300318536406469</v>
+        <v>0.02125322000093571</v>
       </c>
       <c r="T4">
-        <v>0.0130031853640647</v>
+        <v>0.0212532200009357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H5">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N5">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O5">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P5">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q5">
-        <v>25.07926649657</v>
+        <v>7.879451742609667</v>
       </c>
       <c r="R5">
-        <v>225.71339846913</v>
+        <v>70.915065683487</v>
       </c>
       <c r="S5">
-        <v>0.05803676005330548</v>
+        <v>0.01519236788548815</v>
       </c>
       <c r="T5">
-        <v>0.05803676005330549</v>
+        <v>0.01519236788548815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N6">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O6">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P6">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q6">
-        <v>76.17894782033333</v>
+        <v>104.875810703908</v>
       </c>
       <c r="R6">
-        <v>685.610530383</v>
+        <v>943.882296335172</v>
       </c>
       <c r="S6">
-        <v>0.1762882226386738</v>
+        <v>0.2022110104293733</v>
       </c>
       <c r="T6">
-        <v>0.1762882226386738</v>
+        <v>0.2022110104293732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.039673</v>
       </c>
       <c r="O7">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P7">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q7">
         <v>64.97183484739401</v>
@@ -883,10 +883,10 @@
         <v>584.7465136265459</v>
       </c>
       <c r="S7">
-        <v>0.1503534718520141</v>
+        <v>0.1252721698717924</v>
       </c>
       <c r="T7">
-        <v>0.1503534718520141</v>
+        <v>0.1252721698717924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N8">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O8">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P8">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q8">
-        <v>16.303664557472</v>
+        <v>56.12007364519734</v>
       </c>
       <c r="R8">
-        <v>146.732981017248</v>
+        <v>505.080662806776</v>
       </c>
       <c r="S8">
-        <v>0.03772884936810227</v>
+        <v>0.1082050924898674</v>
       </c>
       <c r="T8">
-        <v>0.03772884936810227</v>
+        <v>0.1082050924898674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N9">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O9">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P9">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q9">
-        <v>72.76769817698001</v>
+        <v>40.116123793994</v>
       </c>
       <c r="R9">
-        <v>654.90928359282</v>
+        <v>361.045114145946</v>
       </c>
       <c r="S9">
-        <v>0.1683941370177766</v>
+        <v>0.07734788291454012</v>
       </c>
       <c r="T9">
-        <v>0.1683941370177766</v>
+        <v>0.07734788291454012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H10">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I10">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J10">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N10">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O10">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P10">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q10">
-        <v>11.00378866627778</v>
+        <v>22.016846951586</v>
       </c>
       <c r="R10">
-        <v>99.03409799650001</v>
+        <v>198.151622564274</v>
       </c>
       <c r="S10">
-        <v>0.02546423128401256</v>
+        <v>0.04245067417040881</v>
       </c>
       <c r="T10">
-        <v>0.02546423128401257</v>
+        <v>0.04245067417040881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H11">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I11">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J11">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.039673</v>
       </c>
       <c r="O11">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P11">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q11">
-        <v>9.384959498353666</v>
+        <v>13.639703325273</v>
       </c>
       <c r="R11">
-        <v>84.46463548518301</v>
+        <v>122.757329927457</v>
       </c>
       <c r="S11">
-        <v>0.02171804516652969</v>
+        <v>0.02629870675466979</v>
       </c>
       <c r="T11">
-        <v>0.02171804516652969</v>
+        <v>0.02629870675466979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H12">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I12">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J12">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N12">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O12">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P12">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q12">
-        <v>2.355008626522667</v>
+        <v>11.781430475388</v>
       </c>
       <c r="R12">
-        <v>21.195077638704</v>
+        <v>106.032874278492</v>
       </c>
       <c r="S12">
-        <v>0.005449803350494853</v>
+        <v>0.02271577158490414</v>
       </c>
       <c r="T12">
-        <v>0.005449803350494856</v>
+        <v>0.02271577158490414</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H13">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I13">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J13">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N13">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O13">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P13">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q13">
-        <v>10.51104531345667</v>
+        <v>8.421680384973001</v>
       </c>
       <c r="R13">
-        <v>94.59940782110999</v>
+        <v>75.79512346475701</v>
       </c>
       <c r="S13">
-        <v>0.02432395759461055</v>
+        <v>0.0162378387230447</v>
       </c>
       <c r="T13">
-        <v>0.02432395759461055</v>
+        <v>0.0162378387230447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H14">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N14">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O14">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P14">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q14">
-        <v>29.55029977622223</v>
+        <v>56.92991755281666</v>
       </c>
       <c r="R14">
-        <v>265.952697986</v>
+        <v>512.36925797535</v>
       </c>
       <c r="S14">
-        <v>0.06838332603748243</v>
+        <v>0.1097665522178128</v>
       </c>
       <c r="T14">
-        <v>0.06838332603748244</v>
+        <v>0.1097665522178128</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H15">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.039673</v>
       </c>
       <c r="O15">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P15">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q15">
-        <v>25.20298916808133</v>
+        <v>35.26877338340834</v>
       </c>
       <c r="R15">
-        <v>226.826902512732</v>
+        <v>317.418960450675</v>
       </c>
       <c r="S15">
-        <v>0.05832307077936437</v>
+        <v>0.06800170844541403</v>
       </c>
       <c r="T15">
-        <v>0.05832307077936437</v>
+        <v>0.06800170844541402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H16">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N16">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O16">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P16">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q16">
-        <v>6.324295476757333</v>
+        <v>30.46375655392222</v>
       </c>
       <c r="R16">
-        <v>56.918659290816</v>
+        <v>274.1738089853</v>
       </c>
       <c r="S16">
-        <v>0.01463526132795668</v>
+        <v>0.05873715733778361</v>
       </c>
       <c r="T16">
-        <v>0.01463526132795668</v>
+        <v>0.0587371573377836</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H17">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N17">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O17">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P17">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q17">
-        <v>28.22705428049333</v>
+        <v>21.77630480090833</v>
       </c>
       <c r="R17">
-        <v>254.04348852444</v>
+        <v>195.986743208175</v>
       </c>
       <c r="S17">
-        <v>0.06532115987174796</v>
+        <v>0.04198688494186392</v>
       </c>
       <c r="T17">
-        <v>0.06532115987174796</v>
+        <v>0.04198688494186392</v>
       </c>
     </row>
   </sheetData>
